--- a/biology/Botanique/Pogostemon/Pogostemon.xlsx
+++ b/biology/Botanique/Pogostemon/Pogostemon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Pogostemon regroupe une centaine d'espèces de plantes herbacées et de sous-arbrisseaux de la famille des Lamiacées originaires d'Asie, d'Afrique et même d'Océanie. L'espèce la plus connue est le patchouli (Pogostemon cablin).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[1]   16 novembre 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List"   16 novembre 2012
 Pogostemon amaranthoides Benth. , (1848)
 Pogostemon andersonii (Prain) Panigrahi , (1976)
 Pogostemon aquaticus (C.H.Wright) , (1982)
@@ -634,9 +648,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1]   16 novembre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   16 novembre 2012
 Andrographis ceylanica Nees = Andrographis macrobotrys Nees , (1847)
 Pogostemon barbinervis (Miq.) Benth. = Comanthosphace japonica var. japonica , (année ?)
 Pogostemon battakianus Ridl. = Pogostemon cablin (Blanco) Benth. , (1848)
@@ -701,9 +717,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1]   16 novembre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   16 novembre 2012
 Pogostemon gracilis Hassk. [Unplaced]
 Pogostemon heynea
 Pogostemon hortensis Backer ex K.Heyne [Unplaced]
